--- a/Prediction/LaLiga2025_26/Predicted_LaLiga2025_26_table_matchday_8.xlsx
+++ b/Prediction/LaLiga2025_26/Predicted_LaLiga2025_26_table_matchday_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,31 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TOP4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TOP5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TOP6</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RELEGATION</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>ExpPoints</t>
         </is>
       </c>
@@ -459,8 +484,13 @@
           <t>Real Madrid</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>89.02304196149596</v>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>88.63733836678766</v>
       </c>
     </row>
     <row r="3">
@@ -472,8 +502,13 @@
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>87.61118521947219</v>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>88.2838633875683</v>
       </c>
     </row>
     <row r="4">
@@ -485,8 +520,13 @@
           <t>Atlético de Madrid</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>69.9000748565429</v>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>70.07403845736171</v>
       </c>
     </row>
     <row r="5">
@@ -498,8 +538,13 @@
           <t>Villarreal</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>63.31326351422084</v>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>64.41179771828808</v>
       </c>
     </row>
     <row r="6">
@@ -511,8 +556,13 @@
           <t>Real Betis</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>61.34240181727064</v>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>61.25106960979502</v>
       </c>
     </row>
     <row r="7">
@@ -524,8 +574,13 @@
           <t>Athletic Club</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>56.60432877071477</v>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>56.93389331042831</v>
       </c>
     </row>
     <row r="8">
@@ -537,8 +592,13 @@
           <t>Rayo Vallecano</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>52.63745413321197</v>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>53.1014170709494</v>
       </c>
     </row>
     <row r="9">
@@ -550,8 +610,13 @@
           <t>Getafe</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>49.63989028605118</v>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>49.08106728033445</v>
       </c>
     </row>
     <row r="10">
@@ -563,8 +628,13 @@
           <t>Celta de Vigo</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>49.40084023061272</v>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>48.82887536874397</v>
       </c>
     </row>
     <row r="11">
@@ -576,8 +646,13 @@
           <t>Osasuna</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>48.88123236176558</v>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>48.24543883537496</v>
       </c>
     </row>
     <row r="12">
@@ -586,11 +661,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>47.1222398594131</v>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>47.52047920846063</v>
       </c>
     </row>
     <row r="13">
@@ -599,11 +679,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>46.82856293968501</v>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>46.78673429747457</v>
       </c>
     </row>
     <row r="14">
@@ -612,11 +697,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>46.74582984487348</v>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>46.17704639251744</v>
       </c>
     </row>
     <row r="15">
@@ -628,8 +718,13 @@
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>46.03453671659425</v>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>46.17383287980892</v>
       </c>
     </row>
     <row r="16">
@@ -641,8 +736,13 @@
           <t>Alavés</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>40.87706586537769</v>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>40.19809224319757</v>
       </c>
     </row>
     <row r="17">
@@ -654,8 +754,13 @@
           <t>Mallorca</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>39.1960719064404</v>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>39.72843177731009</v>
       </c>
     </row>
     <row r="18">
@@ -667,8 +772,13 @@
           <t>Elche</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>38.56407590586307</v>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>38.38677328108188</v>
       </c>
     </row>
     <row r="19">
@@ -680,8 +790,13 @@
           <t>Levante</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>35.74248531137947</v>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>35.56210540595981</v>
       </c>
     </row>
     <row r="20">
@@ -693,8 +808,13 @@
           <t>Girona</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>32.41867453440256</v>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>33.05978326196885</v>
       </c>
     </row>
     <row r="21">
@@ -706,8 +826,13 @@
           <t>Real Oviedo</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>30.14710677162273</v>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>29.91713158274803</v>
       </c>
     </row>
   </sheetData>
